--- a/db.xlsx
+++ b/db.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="172">
   <si>
     <t>Usuarios</t>
   </si>
@@ -189,13 +192,364 @@
   </si>
   <si>
     <t>Departamento_municipio</t>
+  </si>
+  <si>
+    <t>cia_sucursales</t>
+  </si>
+  <si>
+    <t>Solicitudes</t>
+  </si>
+  <si>
+    <t>solicitud_id</t>
+  </si>
+  <si>
+    <t>solicitud_fecha</t>
+  </si>
+  <si>
+    <t>solicitud_fecha_cierre</t>
+  </si>
+  <si>
+    <t>solicitud_prioridad</t>
+  </si>
+  <si>
+    <t>Solicitud_tipo</t>
+  </si>
+  <si>
+    <t>Clienteslvl2</t>
+  </si>
+  <si>
+    <t>cliente_id</t>
+  </si>
+  <si>
+    <t>tipo_id</t>
+  </si>
+  <si>
+    <t>tipo_nombre</t>
+  </si>
+  <si>
+    <t>Dependientes</t>
+  </si>
+  <si>
+    <t>entidades_id</t>
+  </si>
+  <si>
+    <t>entidades_primer_nombre</t>
+  </si>
+  <si>
+    <t>entidades_segundo_nombre</t>
+  </si>
+  <si>
+    <t>entidades_primero_apellido</t>
+  </si>
+  <si>
+    <t>entidades_segundo_apellido</t>
+  </si>
+  <si>
+    <t>entidad_telefono</t>
+  </si>
+  <si>
+    <t>entidad_genero</t>
+  </si>
+  <si>
+    <t>entidad_estado_civil</t>
+  </si>
+  <si>
+    <t>entidad_correo</t>
+  </si>
+  <si>
+    <t>entidad_cel</t>
+  </si>
+  <si>
+    <t>entidad_fecha_nac</t>
+  </si>
+  <si>
+    <t>entidad_documentacion</t>
+  </si>
+  <si>
+    <t>entidad_rtn</t>
+  </si>
+  <si>
+    <t>entidad_id</t>
+  </si>
+  <si>
+    <t>cliente_direccion</t>
+  </si>
+  <si>
+    <t>nivel_edu_id</t>
+  </si>
+  <si>
+    <t>Nivel_edu</t>
+  </si>
+  <si>
+    <t>nivel_edu_descrip</t>
+  </si>
+  <si>
+    <t>nivel_abv</t>
+  </si>
+  <si>
+    <t>entidad_telefono1</t>
+  </si>
+  <si>
+    <t>entidad_cel1</t>
+  </si>
+  <si>
+    <t>cliente_estatus</t>
+  </si>
+  <si>
+    <t>prefesion_id</t>
+  </si>
+  <si>
+    <t>Profesion</t>
+  </si>
+  <si>
+    <t>profesion_id</t>
+  </si>
+  <si>
+    <t>profesion_desctip</t>
+  </si>
+  <si>
+    <t>profesion_relacion</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>titulo_id</t>
+  </si>
+  <si>
+    <t>titulo_descrip</t>
+  </si>
+  <si>
+    <t>tipo_entidad</t>
+  </si>
+  <si>
+    <t>tipo_identificacion</t>
+  </si>
+  <si>
+    <t>tipo_descrip</t>
+  </si>
+  <si>
+    <t>tipo_entidad_id</t>
+  </si>
+  <si>
+    <t>tipo_id_id</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>direccion_id</t>
+  </si>
+  <si>
+    <t>direccion_descrip</t>
+  </si>
+  <si>
+    <t>direccion_tipo</t>
+  </si>
+  <si>
+    <t>propiedad_id</t>
+  </si>
+  <si>
+    <t>Propiedad</t>
+  </si>
+  <si>
+    <t>propiedad_descripcion</t>
+  </si>
+  <si>
+    <t>direccion_antiguedad</t>
+  </si>
+  <si>
+    <t>Entidades_Direccion</t>
+  </si>
+  <si>
+    <t>Direccion_id</t>
+  </si>
+  <si>
+    <t>Entidiades</t>
+  </si>
+  <si>
+    <t>entidad_ext_tel</t>
+  </si>
+  <si>
+    <t>Departamento_id</t>
+  </si>
+  <si>
+    <t>Municipio_id</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>colonia_id</t>
+  </si>
+  <si>
+    <t>colonia_desc</t>
+  </si>
+  <si>
+    <t>direccion_calle</t>
+  </si>
+  <si>
+    <t>direccion_avenida</t>
+  </si>
+  <si>
+    <t>direccion_codigo_postal</t>
+  </si>
+  <si>
+    <t>direccion_punto_referencia</t>
+  </si>
+  <si>
+    <t>direccion_ncasa</t>
+  </si>
+  <si>
+    <t>Lugar_Empleo</t>
+  </si>
+  <si>
+    <t>le_id</t>
+  </si>
+  <si>
+    <t>le_estatus</t>
+  </si>
+  <si>
+    <t>le_antiguedad</t>
+  </si>
+  <si>
+    <t>le_tipo</t>
+  </si>
+  <si>
+    <t>cialvl2</t>
+  </si>
+  <si>
+    <t>cialvl2_id</t>
+  </si>
+  <si>
+    <t>cialvl2_nombre</t>
+  </si>
+  <si>
+    <t>cialvl2_abv</t>
+  </si>
+  <si>
+    <t>cialvl2_rtn</t>
+  </si>
+  <si>
+    <t>cargos_id</t>
+  </si>
+  <si>
+    <t>Cargos</t>
+  </si>
+  <si>
+    <t>cargo_id</t>
+  </si>
+  <si>
+    <t>cargo_descrip</t>
+  </si>
+  <si>
+    <t>le_descrip_jefe</t>
+  </si>
+  <si>
+    <t>le_jefe_cargo</t>
+  </si>
+  <si>
+    <t>contrato_tipo_id</t>
+  </si>
+  <si>
+    <t>contrato</t>
+  </si>
+  <si>
+    <t>contrato_desc</t>
+  </si>
+  <si>
+    <t>Frecuencia_pago</t>
+  </si>
+  <si>
+    <t>frecuencia_pago_descrip</t>
+  </si>
+  <si>
+    <t>frecuencia_pago_id</t>
+  </si>
+  <si>
+    <t>Moneda_tipo</t>
+  </si>
+  <si>
+    <t>moneda_tipo_id</t>
+  </si>
+  <si>
+    <t>moneda_tipo_descrip</t>
+  </si>
+  <si>
+    <t>le_ingreso_neto</t>
+  </si>
+  <si>
+    <t>Le_ingreso_declarado</t>
+  </si>
+  <si>
+    <t>le_comisiones_extras</t>
+  </si>
+  <si>
+    <t>le_impuestos_deduc</t>
+  </si>
+  <si>
+    <t>Blacklist</t>
+  </si>
+  <si>
+    <t>Blacklist_id</t>
+  </si>
+  <si>
+    <t>blacklist_tel</t>
+  </si>
+  <si>
+    <t>blacklist_comentario</t>
+  </si>
+  <si>
+    <t>blacklist_tipo</t>
+  </si>
+  <si>
+    <t>le_hora_contacto</t>
+  </si>
+  <si>
+    <t>Propiedades</t>
+  </si>
+  <si>
+    <t>propiedad_descrip</t>
+  </si>
+  <si>
+    <t>tipo_propiedad</t>
+  </si>
+  <si>
+    <t>tipo_propiedad_id</t>
+  </si>
+  <si>
+    <t>tipo_propiedad_desc</t>
+  </si>
+  <si>
+    <t>propiedad_comentario</t>
+  </si>
+  <si>
+    <t>propiedad_valor</t>
+  </si>
+  <si>
+    <t>propiedad_registro</t>
+  </si>
+  <si>
+    <t>Referencias_personales</t>
+  </si>
+  <si>
+    <t>Referencias_personales_id</t>
+  </si>
+  <si>
+    <t>referencias_personales_relacion</t>
+  </si>
+  <si>
+    <t>referencias_personales_antiguedad</t>
+  </si>
+  <si>
+    <t>Datos_venta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +560,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -232,9 +594,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,10 +891,10 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -712,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -731,8 +1094,11 @@
       <c r="H19" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -751,8 +1117,11 @@
       <c r="H20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -771,8 +1140,11 @@
       <c r="H21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -783,19 +1155,618 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="177">
   <si>
     <t>Usuarios</t>
   </si>
@@ -236,9 +236,6 @@
     <t>entidades_primer_nombre</t>
   </si>
   <si>
-    <t>entidades_segundo_nombre</t>
-  </si>
-  <si>
     <t>entidades_primero_apellido</t>
   </si>
   <si>
@@ -543,6 +540,24 @@
   </si>
   <si>
     <t>Datos_venta</t>
+  </si>
+  <si>
+    <t>solicitud_tipo</t>
+  </si>
+  <si>
+    <t>solicitud_canal</t>
+  </si>
+  <si>
+    <t>solicitud_monto</t>
+  </si>
+  <si>
+    <t>solicitud_cuota</t>
+  </si>
+  <si>
+    <t>solicitud_plazo</t>
+  </si>
+  <si>
+    <t>jkhkljh</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,22 +1224,22 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N1" s="1"/>
     </row>
@@ -1233,22 +1248,22 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
         <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1256,7 +1271,7 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
@@ -1268,10 +1283,10 @@
         <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1279,16 +1294,16 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s">
         <v>51</v>
@@ -1299,13 +1314,13 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1313,13 +1328,13 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1327,152 +1342,158 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
       <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" t="s">
         <v>73</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" t="s">
         <v>74</v>
       </c>
-      <c r="K9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>84</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
         <v>65</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
       </c>
       <c r="I18" t="s">
         <v>64</v>
@@ -1482,14 +1503,29 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>108</v>
+      <c r="C19" t="s">
+        <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1512,162 +1548,162 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1694,19 +1730,19 @@
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1719,54 +1755,54 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
